--- a/AfDD_2021_Annex_Table_Tab01.xlsx
+++ b/AfDD_2021_Annex_Table_Tab01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
@@ -1497,7 +1497,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -5216,10 +5216,10 @@
   <hyperlinks>
     <hyperlink ref="B107" r:id="rId1"/>
     <hyperlink ref="B108" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B109" r:id="rId3"/>
-    <hyperlink ref="B110" r:id="rId4"/>
-    <hyperlink ref="B111" r:id="rId5"/>
-    <hyperlink ref="B105" r:id="rId6"/>
+    <hyperlink ref="B105" r:id="rId3"/>
+    <hyperlink ref="B109" r:id="rId4"/>
+    <hyperlink ref="B110" r:id="rId5"/>
+    <hyperlink ref="B111" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2021_Annex_Table_Tab01.xlsx
+++ b/AfDD_2021_Annex_Table_Tab01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t/>
   </si>
   <si>
     <t>Southern Africa</t>

--- a/AfDD_2021_Annex_Table_Tab01.xlsx
+++ b/AfDD_2021_Annex_Table_Tab01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab01.xlsx
+++ b/AfDD_2021_Annex_Table_Tab01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab01.xlsx
+++ b/AfDD_2021_Annex_Table_Tab01.xlsx
@@ -487,7 +487,7 @@
     <t>ROW, Upper middle income countries</t>
   </si>
   <si>
-    <t>High income countries (no LAC)</t>
+    <t>High income countries</t>
   </si>
   <si>
     <t>Africa, Least Developed Countries</t>

--- a/AfDD_2021_Annex_Table_Tab01.xlsx
+++ b/AfDD_2021_Annex_Table_Tab01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab01.xlsx
+++ b/AfDD_2021_Annex_Table_Tab01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
